--- a/Kaggle ML & DS Survey/Past Winning Notebooks/Past Winning Notebooks.xlsx
+++ b/Kaggle ML & DS Survey/Past Winning Notebooks/Past Winning Notebooks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bohao/Documents/GitHub/Personal-Projects/Kaggle ML &amp; DS Survey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bohao/Documents/GitHub/Personal-Projects/Kaggle ML &amp; DS Survey/Past Winning Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{14A2B6F7-EB09-054B-B577-5F30408243E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A754C131-8CD6-CC43-9A06-CDBED92C219D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65666DEC-B736-AB45-8440-270107BABDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21880" yWindow="9380" windowWidth="24920" windowHeight="17440" xr2:uid="{58E96EF9-3CB6-854E-9BC4-D787E2D265C8}"/>
+    <workbookView xWindow="23160" yWindow="9440" windowWidth="24920" windowHeight="17440" xr2:uid="{58E96EF9-3CB6-854E-9BC4-D787E2D265C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Year</t>
   </si>
@@ -125,14 +125,38 @@
     <t>External Data Source</t>
   </si>
   <si>
-    <t>DS Adoption</t>
+    <t>DS Industry / Country</t>
+  </si>
+  <si>
+    <t>Men / Women</t>
+  </si>
+  <si>
+    <t>Job, Funding, Global Data</t>
+  </si>
+  <si>
+    <t>None?</t>
+  </si>
+  <si>
+    <t>Job, Blog</t>
+  </si>
+  <si>
+    <t>Data Scientist / Analyst</t>
+  </si>
+  <si>
+    <t>Early Career Kaggler</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
+    <t>Articles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -165,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -488,19 +512,19 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.76171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.6328125" style="1"/>
+    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="3">
         <v>2021</v>
       </c>
@@ -524,32 +548,59 @@
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
@@ -557,37 +608,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>2019</v>
       </c>
@@ -595,37 +646,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
         <v>2018</v>
       </c>
@@ -633,37 +684,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
         <v>2017</v>
       </c>
@@ -671,7 +722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>25</v>

--- a/Kaggle ML & DS Survey/Past Winning Notebooks/Past Winning Notebooks.xlsx
+++ b/Kaggle ML & DS Survey/Past Winning Notebooks/Past Winning Notebooks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bohao/Documents/GitHub/Personal-Projects/Kaggle ML &amp; DS Survey/Past Winning Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65666DEC-B736-AB45-8440-270107BABDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5C4C10-AE2E-DB46-95C6-4FC68454FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23160" yWindow="9440" windowWidth="24920" windowHeight="17440" xr2:uid="{58E96EF9-3CB6-854E-9BC4-D787E2D265C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -150,6 +150,33 @@
   </si>
   <si>
     <t>Articles</t>
+  </si>
+  <si>
+    <t>Trends in Data Professionals</t>
+  </si>
+  <si>
+    <t>Anaconda Report, Many</t>
+  </si>
+  <si>
+    <t>Enthusiast to Data Professional</t>
+  </si>
+  <si>
+    <t>How to become top data ppl</t>
+  </si>
+  <si>
+    <t>Macdonalds local prices</t>
+  </si>
+  <si>
+    <t>Stack Overflow survey</t>
+  </si>
+  <si>
+    <t>Tools preferences (Kaggle &amp; Stack Overflow)</t>
+  </si>
+  <si>
+    <t>Trends…</t>
+  </si>
+  <si>
+    <t>Education Level</t>
   </si>
 </sst>
 </file>
@@ -512,14 +539,14 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.625" style="1"/>
   </cols>
@@ -600,42 +627,78 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">

--- a/Kaggle ML & DS Survey/Past Winning Notebooks/Past Winning Notebooks.xlsx
+++ b/Kaggle ML & DS Survey/Past Winning Notebooks/Past Winning Notebooks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bohao/Documents/GitHub/Personal-Projects/Kaggle ML &amp; DS Survey/Past Winning Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5C4C10-AE2E-DB46-95C6-4FC68454FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE14465A-4C3D-2849-A090-C7F2A797B06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="9440" windowWidth="24920" windowHeight="17440" xr2:uid="{58E96EF9-3CB6-854E-9BC4-D787E2D265C8}"/>
+    <workbookView xWindow="24560" yWindow="8680" windowWidth="24920" windowHeight="17440" xr2:uid="{58E96EF9-3CB6-854E-9BC4-D787E2D265C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Year</t>
   </si>
@@ -177,6 +177,54 @@
   </si>
   <si>
     <t>Education Level</t>
+  </si>
+  <si>
+    <t>Heatmap used for many questions</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>PhD, network analysis</t>
+  </si>
+  <si>
+    <t>Kaggle vs Glassdoor</t>
+  </si>
+  <si>
+    <t>Japanese women</t>
+  </si>
+  <si>
+    <t>Glassdoor</t>
+  </si>
+  <si>
+    <t>University degree in data science</t>
+  </si>
+  <si>
+    <t>University data</t>
+  </si>
+  <si>
+    <t>Women in data science</t>
+  </si>
+  <si>
+    <t>AI in Africa</t>
+  </si>
+  <si>
+    <t>IDE use</t>
+  </si>
+  <si>
+    <t>Earning</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>MOOC</t>
+  </si>
+  <si>
+    <t>Gender divide</t>
+  </si>
+  <si>
+    <t>Bias, Explainability, Reproducibility</t>
   </si>
 </sst>
 </file>
@@ -538,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE13C3D2-145A-0548-BD85-7E564F493D3B}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="20"/>
@@ -701,83 +749,155 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="3">
         <v>2019</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="3">
         <v>2018</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>2017</v>
       </c>
@@ -785,7 +905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>25</v>
